--- a/11级6班作业分组情况.xlsx
+++ b/11级6班作业分组情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>课题组一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,10 @@
   </si>
   <si>
     <t>61+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +652,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -902,7 +906,9 @@
       <c r="E12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>60</v>
       </c>

--- a/11级6班作业分组情况.xlsx
+++ b/11级6班作业分组情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>课题组一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>徐佩轩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>朱家军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,6 +260,30 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵宏升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马乔龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁大伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑小云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐佩烜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +672,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,73 +687,73 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -744,17 +764,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -765,17 +787,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -786,17 +810,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -804,20 +830,22 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -825,20 +853,22 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -846,20 +876,20 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -869,7 +899,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -882,7 +912,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -892,25 +922,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -918,7 +948,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1">
         <v>85</v>
@@ -940,7 +970,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -964,7 +994,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -988,7 +1018,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1012,7 +1042,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1036,7 +1066,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1060,7 +1090,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
